--- a/biology/Zoologie/Ischnotelson/Ischnotelson.xlsx
+++ b/biology/Zoologie/Ischnotelson/Ischnotelson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ischnotelson est un genre de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques du Brésil[1]. Elles se rencontrent dans les États de Bahia et du Minas Gerais.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques du Brésil. Elles se rencontrent dans les États de Bahia et du Minas Gerais.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (24/12/2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (24/12/2020) :
 Ischnotelson guanambiensis (Lenarducci, Pinto-da-Rocha &amp; Lucas, 2005)
 Ischnotelson peruassu Esposito, Yamaguti, Souza, Pinto da Rocha &amp; Prendini, 2017</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom du genre signifie "telson maigre", du grec ischnos "ισχνός" (iskhnós) voulant dire "maigre" en référence au telson remarquablement fin présent chez les 2 espèces.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Esposito, Yamaguti, Souza, Pinto da Rocha &amp; Prendini, 2017 : « Systematic revision of the neotropical club-tailed scorpions, Physoctonus, Rhopalurus, and Troglorhopalurus, revalidation of Heteroctenus, and descriptions of two new genera and three new species (Buthidae, Rhopalurusinae). » Bulletin of the American Museum of Natural History, no 415, p. 1-134 (texte intégral).</t>
         </is>
